--- a/sequences_processing/16S/16S_results/bi_gender_16S_R.xlsx
+++ b/sequences_processing/16S/16S_results/bi_gender_16S_R.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t xml:space="preserve">Samples</t>
   </si>
@@ -21,6 +21,12 @@
   </si>
   <si>
     <t xml:space="preserve">SIMPSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chao1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACE</t>
   </si>
   <si>
     <t xml:space="preserve">R_2_1</t>
@@ -434,10 +440,16 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
         <v>4.47226605312855</v>
@@ -445,10 +457,16 @@
       <c r="C2" t="n">
         <v>0.95741952709104</v>
       </c>
+      <c r="D2" t="n">
+        <v>324.5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>324.15625</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
         <v>4.2927199170332</v>
@@ -456,10 +474,16 @@
       <c r="C3" t="n">
         <v>0.951670506699873</v>
       </c>
+      <c r="D3" t="n">
+        <v>255.5</v>
+      </c>
+      <c r="E3" t="n">
+        <v>255.164705882353</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
         <v>4.38154434889158</v>
@@ -467,10 +491,16 @@
       <c r="C4" t="n">
         <v>0.956572154684671</v>
       </c>
+      <c r="D4" t="n">
+        <v>276</v>
+      </c>
+      <c r="E4" t="n">
+        <v>276</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
         <v>4.38931639682803</v>
@@ -478,10 +508,16 @@
       <c r="C5" t="n">
         <v>0.951145862728428</v>
       </c>
+      <c r="D5" t="n">
+        <v>355.125</v>
+      </c>
+      <c r="E5" t="n">
+        <v>354.498933901919</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
         <v>4.37337033460329</v>
@@ -489,10 +525,16 @@
       <c r="C6" t="n">
         <v>0.952195981868347</v>
       </c>
+      <c r="D6" t="n">
+        <v>336.125</v>
+      </c>
+      <c r="E6" t="n">
+        <v>336.149779735683</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
         <v>4.41848046587117</v>
@@ -500,10 +542,16 @@
       <c r="C7" t="n">
         <v>0.952159428841398</v>
       </c>
+      <c r="D7" t="n">
+        <v>378.4</v>
+      </c>
+      <c r="E7" t="n">
+        <v>378.318618042226</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8" t="n">
         <v>4.29492606238045</v>
@@ -511,10 +559,16 @@
       <c r="C8" t="n">
         <v>0.949438155445228</v>
       </c>
+      <c r="D8" t="n">
+        <v>284.125</v>
+      </c>
+      <c r="E8" t="n">
+        <v>284.147619047619</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n">
         <v>4.24927707233437</v>
@@ -522,10 +576,16 @@
       <c r="C9" t="n">
         <v>0.945661823875761</v>
       </c>
+      <c r="D9" t="n">
+        <v>301.222222222222</v>
+      </c>
+      <c r="E9" t="n">
+        <v>301.352159468439</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10" t="n">
         <v>4.5478895096355</v>
@@ -533,10 +593,16 @@
       <c r="C10" t="n">
         <v>0.963588684482007</v>
       </c>
+      <c r="D10" t="n">
+        <v>337</v>
+      </c>
+      <c r="E10" t="n">
+        <v>337</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11" t="n">
         <v>4.40154896138726</v>
@@ -544,10 +610,16 @@
       <c r="C11" t="n">
         <v>0.950990566426156</v>
       </c>
+      <c r="D11" t="n">
+        <v>300</v>
+      </c>
+      <c r="E11" t="n">
+        <v>300</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12" t="n">
         <v>4.22599716251988</v>
@@ -555,10 +627,16 @@
       <c r="C12" t="n">
         <v>0.938510343603706</v>
       </c>
+      <c r="D12" t="n">
+        <v>247</v>
+      </c>
+      <c r="E12" t="n">
+        <v>247</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13" t="n">
         <v>4.33542329617752</v>
@@ -566,10 +644,16 @@
       <c r="C13" t="n">
         <v>0.954439434834232</v>
       </c>
+      <c r="D13" t="n">
+        <v>331.071428571429</v>
+      </c>
+      <c r="E13" t="n">
+        <v>331.16317016317</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14" t="n">
         <v>4.38366873729436</v>
@@ -577,10 +661,16 @@
       <c r="C14" t="n">
         <v>0.957644625932942</v>
       </c>
+      <c r="D14" t="n">
+        <v>279</v>
+      </c>
+      <c r="E14" t="n">
+        <v>279</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15" t="n">
         <v>4.45030461368536</v>
@@ -588,10 +678,16 @@
       <c r="C15" t="n">
         <v>0.950914054358845</v>
       </c>
+      <c r="D15" t="n">
+        <v>355</v>
+      </c>
+      <c r="E15" t="n">
+        <v>355</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16" t="n">
         <v>4.33986380671214</v>
@@ -599,10 +695,16 @@
       <c r="C16" t="n">
         <v>0.951306851186302</v>
       </c>
+      <c r="D16" t="n">
+        <v>286</v>
+      </c>
+      <c r="E16" t="n">
+        <v>286</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17" t="n">
         <v>4.30959915734387</v>
@@ -610,10 +712,16 @@
       <c r="C17" t="n">
         <v>0.950430371555369</v>
       </c>
+      <c r="D17" t="n">
+        <v>266</v>
+      </c>
+      <c r="E17" t="n">
+        <v>266</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18" t="n">
         <v>4.5012196568385</v>
@@ -621,10 +729,16 @@
       <c r="C18" t="n">
         <v>0.958921494309607</v>
       </c>
+      <c r="D18" t="n">
+        <v>326</v>
+      </c>
+      <c r="E18" t="n">
+        <v>326</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n">
         <v>4.39537013001891</v>
@@ -632,10 +746,16 @@
       <c r="C19" t="n">
         <v>0.95576940567286</v>
       </c>
+      <c r="D19" t="n">
+        <v>269.5</v>
+      </c>
+      <c r="E19" t="n">
+        <v>269.134020618557</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n">
         <v>4.26900663047511</v>
@@ -643,10 +763,16 @@
       <c r="C20" t="n">
         <v>0.947335739424828</v>
       </c>
+      <c r="D20" t="n">
+        <v>279.166666666667</v>
+      </c>
+      <c r="E20" t="n">
+        <v>279.186567164179</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21" t="n">
         <v>4.21146728524316</v>
@@ -654,10 +780,16 @@
       <c r="C21" t="n">
         <v>0.948640298833388</v>
       </c>
+      <c r="D21" t="n">
+        <v>241</v>
+      </c>
+      <c r="E21" t="n">
+        <v>241</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22" t="n">
         <v>4.38752968370542</v>
@@ -665,10 +797,16 @@
       <c r="C22" t="n">
         <v>0.956475001227926</v>
       </c>
+      <c r="D22" t="n">
+        <v>266</v>
+      </c>
+      <c r="E22" t="n">
+        <v>266</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23" t="n">
         <v>4.3642701664102</v>
@@ -676,10 +814,16 @@
       <c r="C23" t="n">
         <v>0.952907776603426</v>
       </c>
+      <c r="D23" t="n">
+        <v>298</v>
+      </c>
+      <c r="E23" t="n">
+        <v>297.355140186916</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24" t="n">
         <v>4.22384125448825</v>
@@ -687,16 +831,28 @@
       <c r="C24" t="n">
         <v>0.93869394119294</v>
       </c>
+      <c r="D24" t="n">
+        <v>317.285714285714</v>
+      </c>
+      <c r="E24" t="n">
+        <v>317.359756097561</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25" t="n">
         <v>4.37383268920518</v>
       </c>
       <c r="C25" t="n">
         <v>0.956066107547245</v>
+      </c>
+      <c r="D25" t="n">
+        <v>273</v>
+      </c>
+      <c r="E25" t="n">
+        <v>271.288372093023</v>
       </c>
     </row>
   </sheetData>
